--- a/flows/ZSL_fund_flow_data.xlsx
+++ b/flows/ZSL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3079"/>
+  <dimension ref="A1:B3098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31225,6 +31225,196 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3080">
+      <c r="A3080" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B3080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3084" t="n">
+        <v>-1.9604424</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3088" t="n">
+        <v>-2.0102898e-05</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3089" t="n">
+        <v>0.9630731300000001</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3090" t="n">
+        <v>0.9116111</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3094" t="n">
+        <v>1.7391555</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3096" t="n">
+        <v>0.88026816</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3098" t="n">
+        <v>4.1265454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
